--- a/ArchivoExcel.xlsx
+++ b/ArchivoExcel.xlsx
@@ -6,13 +6,19 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Personas" r:id="rId3" sheetId="1"/>
+    <sheet name="Contactos" r:id="rId4" sheetId="2"/>
+    <sheet name="Direcciones" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hola mundo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,9 +61,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData/>
